--- a/src/test/resources/testData/testDataForTestEnvironment.xlsx
+++ b/src/test/resources/testData/testDataForTestEnvironment.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pankaj.yadav\eclipse-workspace\ExposureHubEverest\src\test\resources\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pankaj.yadav\eclipse-workspace\ExposureHub\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -383,10 +383,10 @@
     <t>peril_Name</t>
   </si>
   <si>
-    <t>Policy_14022024_</t>
-  </si>
-  <si>
-    <t>Report_14022024_</t>
+    <t>Policy_21022024_</t>
+  </si>
+  <si>
+    <t>Report_21022024_</t>
   </si>
 </sst>
 </file>
@@ -929,7 +929,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/testData/testDataForTestEnvironment.xlsx
+++ b/src/test/resources/testData/testDataForTestEnvironment.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14580" windowHeight="6180" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14580" windowHeight="6180" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="basicDetails" sheetId="8" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="119">
   <si>
     <t>Username</t>
   </si>
@@ -335,15 +335,9 @@
     <t>grade</t>
   </si>
   <si>
-    <t>timer</t>
-  </si>
-  <si>
     <t>invert_colors</t>
   </si>
   <si>
-    <t>wind_power</t>
-  </si>
-  <si>
     <t>Property</t>
   </si>
   <si>
@@ -387,6 +381,12 @@
   </si>
   <si>
     <t>Report_21022024_</t>
+  </si>
+  <si>
+    <t>OffshoreXL</t>
+  </si>
+  <si>
+    <t>local_gas_station</t>
   </si>
 </sst>
 </file>
@@ -519,7 +519,7 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -538,6 +538,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -862,7 +864,7 @@
         <v>93</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -901,15 +903,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>2</v>
@@ -928,7 +930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -956,7 +958,7 @@
         <v>84</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C2" s="5">
         <v>2</v>
@@ -989,7 +991,7 @@
         <v>89</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C5" s="5">
         <v>5</v>
@@ -1019,10 +1021,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1046,32 +1048,32 @@
         <v>98</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>99</v>
@@ -1106,62 +1108,62 @@
       <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" s="11"/>
+      <c r="A8" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="13"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B9" s="10" t="s">
+      <c r="A9" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>99</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="12" t="s">
         <v>100</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="10" t="s">
+      <c r="A11" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>101</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>102</v>
+      <c r="A12" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>118</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>103</v>
-      </c>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/src/test/resources/testData/testDataForTestEnvironment.xlsx
+++ b/src/test/resources/testData/testDataForTestEnvironment.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14580" windowHeight="6180" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14580" windowHeight="6180" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="basicDetails" sheetId="8" r:id="rId1"/>
@@ -377,16 +377,16 @@
     <t>peril_Name</t>
   </si>
   <si>
-    <t>Policy_21022024_</t>
-  </si>
-  <si>
-    <t>Report_21022024_</t>
-  </si>
-  <si>
     <t>OffshoreXL</t>
   </si>
   <si>
     <t>local_gas_station</t>
+  </si>
+  <si>
+    <t>Policy_P26022024_</t>
+  </si>
+  <si>
+    <t>Report_P26022024_</t>
   </si>
 </sst>
 </file>
@@ -930,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,7 +958,7 @@
         <v>84</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C2" s="5">
         <v>2</v>
@@ -991,7 +991,7 @@
         <v>89</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C5" s="5">
         <v>5</v>
@@ -1023,7 +1023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -1147,10 +1147,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>

--- a/src/test/resources/testData/testDataForTestEnvironment.xlsx
+++ b/src/test/resources/testData/testDataForTestEnvironment.xlsx
@@ -383,10 +383,10 @@
     <t>local_gas_station</t>
   </si>
   <si>
-    <t>Policy_P26022024_</t>
-  </si>
-  <si>
-    <t>Report_P26022024_</t>
+    <t>Policy_P27022024_</t>
+  </si>
+  <si>
+    <t>Report_P27022024_</t>
   </si>
 </sst>
 </file>
@@ -931,7 +931,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/testData/testDataForTestEnvironment.xlsx
+++ b/src/test/resources/testData/testDataForTestEnvironment.xlsx
@@ -383,10 +383,10 @@
     <t>local_gas_station</t>
   </si>
   <si>
-    <t>Policy_P27022024_</t>
-  </si>
-  <si>
-    <t>Report_P27022024_</t>
+    <t>Policy_P28022024_</t>
+  </si>
+  <si>
+    <t>Report_P28022024_</t>
   </si>
 </sst>
 </file>
@@ -931,7 +931,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/testData/testDataForTestEnvironment.xlsx
+++ b/src/test/resources/testData/testDataForTestEnvironment.xlsx
@@ -317,76 +317,76 @@
     <t>Browser Name (chrome/firefox/edge)</t>
   </si>
   <si>
+    <t>className_one</t>
+  </si>
+  <si>
+    <t>className_two_class_With_Same_Name</t>
+  </si>
+  <si>
+    <t>className_two_class_With_Different_Name</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>grade</t>
+  </si>
+  <si>
+    <t>invert_colors</t>
+  </si>
+  <si>
+    <t>Property</t>
+  </si>
+  <si>
+    <t>Offshore</t>
+  </si>
+  <si>
+    <t>class_Name_Offshore_Renewables_With_Entity_Name</t>
+  </si>
+  <si>
+    <t>https://test-eh.ebixexchange.com/login</t>
+  </si>
+  <si>
+    <t>suneel.k</t>
+  </si>
+  <si>
+    <t>ebix@123</t>
+  </si>
+  <si>
+    <t>Property,Property</t>
+  </si>
+  <si>
+    <t>Offshore,Terrorism</t>
+  </si>
+  <si>
+    <t>Offshore (Entity A)</t>
+  </si>
+  <si>
+    <t>user2b</t>
+  </si>
+  <si>
+    <t>Hint (Locator value as per class name)</t>
+  </si>
+  <si>
+    <t>Fire</t>
+  </si>
+  <si>
+    <t>peril_Name</t>
+  </si>
+  <si>
+    <t>OffshoreXL</t>
+  </si>
+  <si>
+    <t>local_gas_station</t>
+  </si>
+  <si>
     <t>chrome</t>
   </si>
   <si>
-    <t>className_one</t>
-  </si>
-  <si>
-    <t>className_two_class_With_Same_Name</t>
-  </si>
-  <si>
-    <t>className_two_class_With_Different_Name</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>grade</t>
-  </si>
-  <si>
-    <t>invert_colors</t>
-  </si>
-  <si>
-    <t>Property</t>
-  </si>
-  <si>
-    <t>Offshore</t>
-  </si>
-  <si>
-    <t>class_Name_Offshore_Renewables_With_Entity_Name</t>
-  </si>
-  <si>
-    <t>https://test-eh.ebixexchange.com/login</t>
-  </si>
-  <si>
-    <t>suneel.k</t>
-  </si>
-  <si>
-    <t>ebix@123</t>
-  </si>
-  <si>
-    <t>Property,Property</t>
-  </si>
-  <si>
-    <t>Offshore,Terrorism</t>
-  </si>
-  <si>
-    <t>Offshore (Entity A)</t>
-  </si>
-  <si>
-    <t>user2b</t>
-  </si>
-  <si>
-    <t>Hint (Locator value as per class name)</t>
-  </si>
-  <si>
-    <t>Fire</t>
-  </si>
-  <si>
-    <t>peril_Name</t>
-  </si>
-  <si>
-    <t>OffshoreXL</t>
-  </si>
-  <si>
-    <t>local_gas_station</t>
-  </si>
-  <si>
-    <t>Policy_P28022024_</t>
-  </si>
-  <si>
-    <t>Report_P28022024_</t>
+    <t>Policy_PY05032024_</t>
+  </si>
+  <si>
+    <t>Report_PY05032024_</t>
   </si>
 </sst>
 </file>
@@ -834,7 +834,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -856,7 +856,7 @@
         <v>94</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -864,7 +864,7 @@
         <v>93</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -903,15 +903,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>2</v>
@@ -931,7 +931,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,47 +1039,47 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>98</v>
-      </c>
       <c r="D1" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>110</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>99</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>100</v>
       </c>
       <c r="D3" s="10"/>
     </row>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="10"/>
@@ -1117,10 +1117,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -1130,27 +1130,27 @@
         <v>18</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>115</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>116</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>

--- a/src/test/resources/testData/testDataForTestEnvironment.xlsx
+++ b/src/test/resources/testData/testDataForTestEnvironment.xlsx
@@ -383,10 +383,10 @@
     <t>chrome</t>
   </si>
   <si>
-    <t>Policy_PY05032024_</t>
-  </si>
-  <si>
-    <t>Report_PY05032024_</t>
+    <t>Policy_PY06032024_</t>
+  </si>
+  <si>
+    <t>Report_PY06032024_</t>
   </si>
 </sst>
 </file>
@@ -931,7 +931,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/testData/testDataForTestEnvironment.xlsx
+++ b/src/test/resources/testData/testDataForTestEnvironment.xlsx
@@ -383,10 +383,10 @@
     <t>chrome</t>
   </si>
   <si>
-    <t>Policy_PY06032024_</t>
-  </si>
-  <si>
-    <t>Report_PY06032024_</t>
+    <t>Policy_PY15032024_</t>
+  </si>
+  <si>
+    <t>Report_PY15032024_</t>
   </si>
 </sst>
 </file>
@@ -883,7 +883,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -931,7 +931,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/testData/testDataForTestEnvironment.xlsx
+++ b/src/test/resources/testData/testDataForTestEnvironment.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="123">
   <si>
     <t>Username</t>
   </si>
@@ -383,10 +383,22 @@
     <t>chrome</t>
   </si>
   <si>
-    <t>Policy_PY15032024_</t>
-  </si>
-  <si>
-    <t>Report_PY15032024_</t>
+    <t>Release Version</t>
+  </si>
+  <si>
+    <t>S105</t>
+  </si>
+  <si>
+    <t>Do you want send email after post test suite</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Policy_M18032024_</t>
+  </si>
+  <si>
+    <t>Report_M18032024_</t>
   </si>
 </sst>
 </file>
@@ -831,23 +843,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -863,14 +875,33 @@
       <c r="A3" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="11" t="s">
         <v>104</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>"chrome,firefox,edge"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
+      <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -931,7 +962,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,7 +989,7 @@
         <v>84</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C2" s="5">
         <v>2</v>
@@ -991,7 +1022,7 @@
         <v>89</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C5" s="5">
         <v>5</v>
@@ -1179,7 +1210,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/testData/testDataForTestEnvironment.xlsx
+++ b/src/test/resources/testData/testDataForTestEnvironment.xlsx
@@ -395,10 +395,10 @@
     <t>No</t>
   </si>
   <si>
-    <t>Policy_M18032024_</t>
-  </si>
-  <si>
-    <t>Report_M18032024_</t>
+    <t>Policy_PY20032024_</t>
+  </si>
+  <si>
+    <t>Report_PY20032024_</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testData/testDataForTestEnvironment.xlsx
+++ b/src/test/resources/testData/testDataForTestEnvironment.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14580" windowHeight="6180" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14580" windowHeight="6180"/>
   </bookViews>
   <sheets>
     <sheet name="basicDetails" sheetId="8" r:id="rId1"/>
@@ -395,10 +395,10 @@
     <t>No</t>
   </si>
   <si>
-    <t>Policy_PY20032024_</t>
-  </si>
-  <si>
-    <t>Report_PY20032024_</t>
+    <t>Policy_PY27032024_</t>
+  </si>
+  <si>
+    <t>Report_PY27032024_</t>
   </si>
 </sst>
 </file>
@@ -845,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -961,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
